--- a/src/database/seeds/IMS_VENUE_SYSTEM_INFO_ADD_SKELETON.xlsx
+++ b/src/database/seeds/IMS_VENUE_SYSTEM_INFO_ADD_SKELETON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\undefined\Desktop\Work\IPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\var\www\code\ims_be_v2\src\database\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E96D0FD3-D9D4-455E-A419-E21A9986D08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE65EAF-E775-4395-A7B9-5C4B85B11F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BEB28C09-0258-4F05-8789-C7428A1668B1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BEB28C09-0258-4F05-8789-C7428A1668B1}"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="12" r:id="rId1"/>
@@ -1164,10 +1164,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Collector</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>CM1402</t>
   </si>
   <si>
@@ -1373,833 +1369,836 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>IMS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM0409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANNEL</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>MAINVIEWI</t>
+  </si>
+  <si>
+    <t>CM1309</t>
+  </si>
+  <si>
+    <t>Antigua And Barbuda</t>
+  </si>
+  <si>
+    <t>MAINVIEWJ</t>
+  </si>
+  <si>
+    <t>CM1310</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>MULTIVIEWA</t>
+  </si>
+  <si>
+    <t>CM1311</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>MULTIVIEWB</t>
+  </si>
+  <si>
+    <t>CM1312</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>MULTIVIEWC</t>
+  </si>
+  <si>
+    <t>CM1313</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>MULTIVIEWD</t>
+  </si>
+  <si>
+    <t>CM1314</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>MULTIVIEWE</t>
+  </si>
+  <si>
+    <t>CM1315</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>MULTIVIEWF</t>
+  </si>
+  <si>
+    <t>CM1316</t>
+  </si>
+  <si>
+    <t>Bahamas The</t>
+  </si>
+  <si>
+    <t>BIRDVIEWA</t>
+  </si>
+  <si>
+    <t>CM1317</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>BIRDVIEWB</t>
+  </si>
+  <si>
+    <t>CM1318</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BIRDVIEWC</t>
+  </si>
+  <si>
+    <t>CM1319</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>EXTERNALA</t>
+  </si>
+  <si>
+    <t>CM1320</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>EXTERNALB</t>
+  </si>
+  <si>
+    <t>CM1321</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>EXTERNALC</t>
+  </si>
+  <si>
+    <t>CM1322</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>PDVIEWA</t>
+  </si>
+  <si>
+    <t>CM1323</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>PDVIEWB</t>
+  </si>
+  <si>
+    <t>CM1324</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>PDVIEWC</t>
+  </si>
+  <si>
+    <t>CM1325</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Congo The Democratic Republic Of The</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote D'Ivoire (Ivory Coast)</t>
+  </si>
+  <si>
+    <t>Croatia (Hrvatska)</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Falkland Islands</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji Islands</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia The</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey and Alderney</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong S.A.R.</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Korea North</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau S.A.R.</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands The</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palestinian Territory Occupied</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua new Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn Island</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts And Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent And The Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard And Jan Mayen Islands</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad And Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks And Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t>Virgin Islands (US)</t>
+  </si>
+  <si>
+    <t>Wallis And Futuna Islands</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
     <t>CMSW</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>CM0409</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANNEL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>MAINVIEWI</t>
-  </si>
-  <si>
-    <t>CM1309</t>
-  </si>
-  <si>
-    <t>IMS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>CM0410</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Antigua And Barbuda</t>
-  </si>
-  <si>
-    <t>MAINVIEWJ</t>
-  </si>
-  <si>
-    <t>CM1310</t>
-  </si>
-  <si>
     <t>CM0411</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>MULTIVIEWA</t>
-  </si>
-  <si>
-    <t>CM1311</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>MULTIVIEWB</t>
-  </si>
-  <si>
-    <t>CM1312</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>MULTIVIEWC</t>
-  </si>
-  <si>
-    <t>CM1313</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>MULTIVIEWD</t>
-  </si>
-  <si>
-    <t>CM1314</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>MULTIVIEWE</t>
-  </si>
-  <si>
-    <t>CM1315</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>MULTIVIEWF</t>
-  </si>
-  <si>
-    <t>CM1316</t>
-  </si>
-  <si>
-    <t>Bahamas The</t>
-  </si>
-  <si>
-    <t>BIRDVIEWA</t>
-  </si>
-  <si>
-    <t>CM1317</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>BIRDVIEWB</t>
-  </si>
-  <si>
-    <t>CM1318</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>BIRDVIEWC</t>
-  </si>
-  <si>
-    <t>CM1319</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>EXTERNALA</t>
-  </si>
-  <si>
-    <t>CM1320</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>EXTERNALB</t>
-  </si>
-  <si>
-    <t>CM1321</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>EXTERNALC</t>
-  </si>
-  <si>
-    <t>CM1322</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>PDVIEWA</t>
-  </si>
-  <si>
-    <t>CM1323</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>PDVIEWB</t>
-  </si>
-  <si>
-    <t>CM1324</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>PDVIEWC</t>
-  </si>
-  <si>
-    <t>CM1325</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>British Indian Ocean Territory</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Cocos (Keeling) Islands</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>Congo The Democratic Republic Of The</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cote D'Ivoire (Ivory Coast)</t>
-  </si>
-  <si>
-    <t>Croatia (Hrvatska)</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Falkland Islands</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Fiji Islands</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>French Southern Territories</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia The</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guernsey and Alderney</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Heard and McDonald Islands</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong S.A.R.</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Korea North</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Macau S.A.R.</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands The</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Palestinian Territory Occupied</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua new Guinea</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Pitcairn Island</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Kitts And Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>Saint Vincent And The Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South Georgia</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Svalbard And Jan Mayen Islands</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad And Tobago</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turks And Caicos Islands</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>United States Minor Outlying Islands</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Virgin Islands (British)</t>
-  </si>
-  <si>
-    <t>Virgin Islands (US)</t>
-  </si>
-  <si>
-    <t>Wallis And Futuna Islands</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>CLOUD_FRONT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PREWARM</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>CLOUD_FRONT</t>
+    <t>EMSG</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2304,9 +2303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -2543,16 +2541,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2673,16 +2668,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2719,10 +2705,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{D8DB6BA3-1631-48E7-930C-77C39BD32263}"/>
-    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3026,7 +3011,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3040,39 +3025,37 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="BO15" sqref="A4:BO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="2.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="27" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.75" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="4.25" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="0.125" style="6" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="0.5" style="18" customWidth="1"/>
-    <col min="15" max="15" width="0.125" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="23.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0.875" style="18"/>
+    <col min="15" max="15" width="9.625" style="3" hidden="1" customWidth="1"/>
     <col min="16" max="17" width="16.875" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.375" style="6" customWidth="1"/>
-    <col min="22" max="22" width="7.625" style="3" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="1.125" style="18" customWidth="1"/>
-    <col min="24" max="24" width="6.25" style="3" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="10.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.625" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="0.875" style="18"/>
+    <col min="24" max="24" width="7.5" style="3" hidden="1" customWidth="1"/>
     <col min="25" max="26" width="11.5" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.5" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="7.5" style="3" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.75" style="18" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="0.75" style="3" customWidth="1"/>
-    <col min="33" max="33" width="4.375" style="3" customWidth="1"/>
+    <col min="31" max="31" width="0.875" style="18"/>
+    <col min="32" max="32" width="8.25" style="3" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="4.5" style="3" customWidth="1"/>
     <col min="34" max="34" width="18.5" style="3" customWidth="1"/>
     <col min="35" max="35" width="15.25" style="3" customWidth="1"/>
     <col min="36" max="36" width="8.875" style="3" customWidth="1"/>
@@ -3085,7 +3068,7 @@
     <col min="48" max="48" width="0.875" style="18"/>
     <col min="49" max="50" width="8.25" style="3" hidden="1" customWidth="1"/>
     <col min="51" max="52" width="8.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="20.125" style="3" customWidth="1"/>
+    <col min="53" max="53" width="20.125" style="3" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="9.125" style="3" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="12.5" style="3" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="8.25" style="3" bestFit="1" customWidth="1"/>
@@ -3093,54 +3076,31 @@
     <col min="58" max="58" width="8.25" style="3" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="47.125" style="3" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="12.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="0.125" style="3" customWidth="1"/>
+    <col min="61" max="61" width="8.25" style="3" hidden="1" customWidth="1"/>
     <col min="62" max="63" width="9.125" style="6" bestFit="1" customWidth="1"/>
     <col min="64" max="65" width="16.875" style="6" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="17.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.125" style="3" customWidth="1"/>
-    <col min="68" max="68" width="1.25" style="18" customWidth="1"/>
-    <col min="69" max="69" width="3.25" style="3" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="3.375" style="3" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="4.5" style="3" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="3.125" style="3" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="3" style="3" hidden="1" customWidth="1"/>
-    <col min="74" max="74" width="4" style="6" hidden="1" customWidth="1"/>
-    <col min="75" max="75" width="4.125" style="6" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="3.625" style="6" hidden="1" customWidth="1"/>
-    <col min="77" max="78" width="3.875" style="6" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="3.375" style="6" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="5" style="6" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="5.25" style="6" hidden="1" customWidth="1"/>
-    <col min="82" max="82" width="5.375" style="6" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="4" style="18" hidden="1" customWidth="1"/>
-    <col min="84" max="84" width="3.125" style="3" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="3" style="3" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="3.875" style="3" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="2.125" style="3" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="3.25" style="3" hidden="1" customWidth="1"/>
-    <col min="89" max="89" width="2.875" style="3" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="3.25" style="3" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="5.125" style="3" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="3.875" style="18" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="4.125" style="3" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="2.5" style="3" hidden="1" customWidth="1"/>
-    <col min="95" max="95" width="2" style="3" hidden="1" customWidth="1"/>
-    <col min="96" max="96" width="0.5" style="3" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="2.375" style="3" hidden="1" customWidth="1"/>
-    <col min="98" max="98" width="3" style="3" hidden="1" customWidth="1"/>
-    <col min="99" max="99" width="0.625" style="18" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="0.125" style="3" hidden="1" customWidth="1"/>
-    <col min="101" max="102" width="1.75" style="3" hidden="1" customWidth="1"/>
-    <col min="103" max="103" width="2.25" style="3" hidden="1" customWidth="1"/>
-    <col min="104" max="104" width="2.625" style="3" hidden="1" customWidth="1"/>
-    <col min="105" max="105" width="5.375" style="3" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="3.875" style="3" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="3.375" style="3" hidden="1" customWidth="1"/>
-    <col min="108" max="108" width="5.125" style="3" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="5.25" style="3" hidden="1" customWidth="1"/>
-    <col min="110" max="110" width="3" style="3" hidden="1" customWidth="1"/>
-    <col min="111" max="111" width="4.875" style="6" hidden="1" customWidth="1"/>
-    <col min="112" max="112" width="12.375" style="3" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="0.875" style="18"/>
+    <col min="69" max="72" width="9.125" style="3" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="9.625" style="3" hidden="1" customWidth="1"/>
+    <col min="74" max="79" width="10.125" style="6" hidden="1" customWidth="1"/>
+    <col min="80" max="81" width="9.125" style="6" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="10.125" style="6" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="0" style="18" hidden="1" customWidth="1"/>
+    <col min="84" max="90" width="8.5" style="3" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="9.5" style="3" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="0" style="18" hidden="1" customWidth="1"/>
+    <col min="93" max="94" width="8.75" style="3" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="9.75" style="3" hidden="1" customWidth="1"/>
+    <col min="96" max="97" width="8.75" style="3" hidden="1" customWidth="1"/>
+    <col min="98" max="98" width="9.75" style="3" hidden="1" customWidth="1"/>
+    <col min="99" max="99" width="0" style="18" hidden="1" customWidth="1"/>
+    <col min="100" max="107" width="11.125" style="3" hidden="1" customWidth="1"/>
+    <col min="108" max="108" width="12.25" style="3" hidden="1" customWidth="1"/>
+    <col min="109" max="110" width="11.125" style="3" hidden="1" customWidth="1"/>
+    <col min="111" max="111" width="12.25" style="6" hidden="1" customWidth="1"/>
+    <col min="112" max="112" width="12.25" style="3" hidden="1" customWidth="1"/>
     <col min="113" max="113" width="9.125" style="13" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="9.625" style="13" bestFit="1" customWidth="1"/>
     <col min="115" max="116" width="9.125" style="13" bestFit="1" customWidth="1"/>
@@ -3159,167 +3119,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:135" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="46"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="46"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="43"/>
       <c r="W1" s="15"/>
-      <c r="X1" s="44" t="s">
+      <c r="X1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="46"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="43"/>
       <c r="AD1" s="36"/>
       <c r="AE1" s="15"/>
-      <c r="AF1" s="44" t="s">
+      <c r="AF1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="46"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="43"/>
       <c r="AT1" s="36"/>
       <c r="AU1" s="36"/>
       <c r="AV1" s="15"/>
-      <c r="AW1" s="44" t="s">
+      <c r="AW1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45"/>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="45"/>
-      <c r="BG1" s="45"/>
-      <c r="BH1" s="45"/>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45"/>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
-      <c r="BO1" s="46"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
+      <c r="BF1" s="42"/>
+      <c r="BG1" s="42"/>
+      <c r="BH1" s="42"/>
+      <c r="BI1" s="42"/>
+      <c r="BJ1" s="42"/>
+      <c r="BK1" s="42"/>
+      <c r="BL1" s="42"/>
+      <c r="BM1" s="42"/>
+      <c r="BN1" s="42"/>
+      <c r="BO1" s="43"/>
       <c r="BP1" s="15"/>
-      <c r="BQ1" s="44" t="s">
+      <c r="BQ1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="BR1" s="45"/>
-      <c r="BS1" s="45"/>
-      <c r="BT1" s="45"/>
-      <c r="BU1" s="45"/>
-      <c r="BV1" s="45"/>
-      <c r="BW1" s="45"/>
-      <c r="BX1" s="45"/>
-      <c r="BY1" s="45"/>
-      <c r="BZ1" s="45"/>
-      <c r="CA1" s="45"/>
-      <c r="CB1" s="45"/>
-      <c r="CC1" s="45"/>
-      <c r="CD1" s="46"/>
+      <c r="BR1" s="42"/>
+      <c r="BS1" s="42"/>
+      <c r="BT1" s="42"/>
+      <c r="BU1" s="42"/>
+      <c r="BV1" s="42"/>
+      <c r="BW1" s="42"/>
+      <c r="BX1" s="42"/>
+      <c r="BY1" s="42"/>
+      <c r="BZ1" s="42"/>
+      <c r="CA1" s="42"/>
+      <c r="CB1" s="42"/>
+      <c r="CC1" s="42"/>
+      <c r="CD1" s="43"/>
       <c r="CE1" s="15"/>
-      <c r="CF1" s="44" t="s">
+      <c r="CF1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="CG1" s="45"/>
-      <c r="CH1" s="45"/>
-      <c r="CI1" s="45"/>
-      <c r="CJ1" s="45"/>
-      <c r="CK1" s="45"/>
-      <c r="CL1" s="45"/>
-      <c r="CM1" s="46"/>
+      <c r="CG1" s="42"/>
+      <c r="CH1" s="42"/>
+      <c r="CI1" s="42"/>
+      <c r="CJ1" s="42"/>
+      <c r="CK1" s="42"/>
+      <c r="CL1" s="42"/>
+      <c r="CM1" s="43"/>
       <c r="CN1" s="15"/>
-      <c r="CO1" s="44" t="s">
+      <c r="CO1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="CP1" s="45"/>
-      <c r="CQ1" s="45"/>
-      <c r="CR1" s="45"/>
-      <c r="CS1" s="45"/>
-      <c r="CT1" s="46"/>
+      <c r="CP1" s="42"/>
+      <c r="CQ1" s="42"/>
+      <c r="CR1" s="42"/>
+      <c r="CS1" s="42"/>
+      <c r="CT1" s="43"/>
       <c r="CU1" s="15"/>
-      <c r="CV1" s="44" t="s">
+      <c r="CV1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="CW1" s="45"/>
-      <c r="CX1" s="45"/>
-      <c r="CY1" s="45"/>
-      <c r="CZ1" s="45"/>
-      <c r="DA1" s="45"/>
-      <c r="DB1" s="45"/>
-      <c r="DC1" s="45"/>
-      <c r="DD1" s="45"/>
-      <c r="DE1" s="45"/>
-      <c r="DF1" s="45"/>
-      <c r="DG1" s="45"/>
-      <c r="DH1" s="45"/>
-      <c r="DI1" s="47" t="s">
+      <c r="CW1" s="42"/>
+      <c r="CX1" s="42"/>
+      <c r="CY1" s="42"/>
+      <c r="CZ1" s="42"/>
+      <c r="DA1" s="42"/>
+      <c r="DB1" s="42"/>
+      <c r="DC1" s="42"/>
+      <c r="DD1" s="42"/>
+      <c r="DE1" s="42"/>
+      <c r="DF1" s="42"/>
+      <c r="DG1" s="42"/>
+      <c r="DH1" s="42"/>
+      <c r="DI1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="DJ1" s="48"/>
-      <c r="DK1" s="48"/>
-      <c r="DL1" s="48"/>
-      <c r="DM1" s="48"/>
-      <c r="DN1" s="48"/>
-      <c r="DO1" s="48"/>
-      <c r="DP1" s="48"/>
-      <c r="DQ1" s="48"/>
-      <c r="DR1" s="48"/>
-      <c r="DS1" s="48"/>
-      <c r="DT1" s="48"/>
-      <c r="DU1" s="48"/>
-      <c r="DV1" s="48"/>
-      <c r="DW1" s="48"/>
-      <c r="DX1" s="48"/>
-      <c r="DY1" s="48"/>
-      <c r="DZ1" s="48"/>
-      <c r="EA1" s="48"/>
-      <c r="EB1" s="48"/>
-      <c r="EC1" s="48"/>
-      <c r="ED1" s="48"/>
-      <c r="EE1" s="48"/>
+      <c r="DJ1" s="45"/>
+      <c r="DK1" s="45"/>
+      <c r="DL1" s="45"/>
+      <c r="DM1" s="45"/>
+      <c r="DN1" s="45"/>
+      <c r="DO1" s="45"/>
+      <c r="DP1" s="45"/>
+      <c r="DQ1" s="45"/>
+      <c r="DR1" s="45"/>
+      <c r="DS1" s="45"/>
+      <c r="DT1" s="45"/>
+      <c r="DU1" s="45"/>
+      <c r="DV1" s="45"/>
+      <c r="DW1" s="45"/>
+      <c r="DX1" s="45"/>
+      <c r="DY1" s="45"/>
+      <c r="DZ1" s="45"/>
+      <c r="EA1" s="45"/>
+      <c r="EB1" s="45"/>
+      <c r="EC1" s="45"/>
+      <c r="ED1" s="45"/>
+      <c r="EE1" s="45"/>
     </row>
     <row r="2" spans="1:135" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="33" t="s">
         <v>11</v>
       </c>
@@ -3704,9 +3664,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:135" s="1" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
+    <row r="3" spans="1:135" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="26" t="s">
         <v>136</v>
       </c>
@@ -4915,7 +4875,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:135" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="28"/>
@@ -4956,7 +4916,7 @@
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
-      <c r="AO8" s="30"/>
+      <c r="AO8" s="31"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4"/>
@@ -4974,7 +4934,7 @@
       <c r="BD8" s="4"/>
       <c r="BE8" s="4"/>
       <c r="BF8" s="4"/>
-      <c r="BG8" s="43"/>
+      <c r="BG8" s="40"/>
       <c r="BH8" s="4"/>
       <c r="BI8" s="4"/>
       <c r="BJ8" s="19"/>
@@ -5162,7 +5122,7 @@
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
-      <c r="AO9" s="30"/>
+      <c r="AO9" s="31"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
       <c r="AR9" s="4"/>
@@ -5368,7 +5328,7 @@
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
-      <c r="AO10" s="30"/>
+      <c r="AO10" s="31"/>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
@@ -5382,11 +5342,11 @@
       <c r="AZ10" s="4"/>
       <c r="BA10" s="4"/>
       <c r="BB10" s="21"/>
-      <c r="BC10" s="40"/>
-      <c r="BD10" s="40"/>
-      <c r="BE10" s="40"/>
-      <c r="BF10" s="40"/>
-      <c r="BG10" s="40"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
       <c r="BH10" s="4"/>
       <c r="BI10" s="4"/>
       <c r="BJ10" s="19"/>
@@ -5589,9 +5549,9 @@
       <c r="BA11" s="4"/>
       <c r="BB11" s="21"/>
       <c r="BC11" s="4"/>
-      <c r="BD11" s="40"/>
+      <c r="BD11" s="4"/>
       <c r="BE11" s="4"/>
-      <c r="BF11" s="40"/>
+      <c r="BF11" s="4"/>
       <c r="BG11" s="4"/>
       <c r="BH11" s="4"/>
       <c r="BI11" s="4"/>
@@ -5795,9 +5755,9 @@
       <c r="BA12" s="4"/>
       <c r="BB12" s="21"/>
       <c r="BC12" s="4"/>
-      <c r="BD12" s="40"/>
+      <c r="BD12" s="4"/>
       <c r="BE12" s="4"/>
-      <c r="BF12" s="40"/>
+      <c r="BF12" s="4"/>
       <c r="BG12" s="4"/>
       <c r="BH12" s="4"/>
       <c r="BI12" s="4"/>
@@ -6001,9 +5961,9 @@
       <c r="BA13" s="4"/>
       <c r="BB13" s="21"/>
       <c r="BC13" s="4"/>
-      <c r="BD13" s="40"/>
+      <c r="BD13" s="4"/>
       <c r="BE13" s="4"/>
-      <c r="BF13" s="40"/>
+      <c r="BF13" s="4"/>
       <c r="BG13" s="4"/>
       <c r="BH13" s="4"/>
       <c r="BI13" s="4"/>
@@ -6207,9 +6167,9 @@
       <c r="BA14" s="4"/>
       <c r="BB14" s="21"/>
       <c r="BC14" s="4"/>
-      <c r="BD14" s="40"/>
+      <c r="BD14" s="4"/>
       <c r="BE14" s="4"/>
-      <c r="BF14" s="40"/>
+      <c r="BF14" s="4"/>
       <c r="BG14" s="4"/>
       <c r="BH14" s="4"/>
       <c r="BI14" s="4"/>
@@ -6357,7 +6317,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:135" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="28"/>
@@ -6412,11 +6372,11 @@
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4"/>
       <c r="BB15" s="21"/>
-      <c r="BC15" s="40"/>
+      <c r="BC15" s="4"/>
       <c r="BD15" s="4"/>
-      <c r="BE15" s="40"/>
+      <c r="BE15" s="4"/>
       <c r="BF15" s="4"/>
-      <c r="BG15" s="42"/>
+      <c r="BG15" s="4"/>
       <c r="BH15" s="4"/>
       <c r="BI15" s="4"/>
       <c r="BJ15" s="19"/>
@@ -6563,7 +6523,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:135" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:135" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="28"/>
@@ -6622,7 +6582,7 @@
       <c r="BD16" s="4"/>
       <c r="BE16" s="4"/>
       <c r="BF16" s="4"/>
-      <c r="BG16" s="43"/>
+      <c r="BG16" s="4"/>
       <c r="BH16" s="4"/>
       <c r="BI16" s="4"/>
       <c r="BJ16" s="19"/>
@@ -7034,7 +6994,7 @@
       <c r="BD18" s="4"/>
       <c r="BE18" s="4"/>
       <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
+      <c r="BG18" s="40"/>
       <c r="BH18" s="4"/>
       <c r="BI18" s="4"/>
       <c r="BJ18" s="19"/>
@@ -9911,7 +9871,7 @@
       <c r="AZ32" s="4"/>
       <c r="BA32" s="4"/>
       <c r="BB32" s="21"/>
-      <c r="BC32" s="41"/>
+      <c r="BC32" s="4"/>
       <c r="BD32" s="4"/>
       <c r="BE32" s="4"/>
       <c r="BF32" s="4"/>
@@ -10114,7 +10074,7 @@
       <c r="AZ33" s="4"/>
       <c r="BA33" s="4"/>
       <c r="BB33" s="21"/>
-      <c r="BC33" s="41"/>
+      <c r="BC33" s="4"/>
       <c r="BD33" s="4"/>
       <c r="BE33" s="4"/>
       <c r="BF33" s="4"/>
@@ -45098,7 +45058,7 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A43281D-E9FE-4B57-8051-ECD5DA7817B9}">
           <x14:formula1>
             <xm:f>'(참고)코드'!$AI$2:$AI$4</xm:f>
@@ -45149,15 +45109,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C57DD64F-14A6-4A2E-8A51-CE64E121A75E}">
           <x14:formula1>
-            <xm:f>'(참고)코드'!$J$2:$J$10</xm:f>
+            <xm:f>'(참고)코드'!$J$2:$J$12</xm:f>
           </x14:formula1>
-          <xm:sqref>AA4:AA202 BB159:BB202</xm:sqref>
+          <xm:sqref>AA4:AA202 BB45:BB202 BB4:BB43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2151760-9921-4524-B956-44D2E2566A50}">
           <x14:formula1>
             <xm:f>'(참고)코드'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>CM4:CM202 CD4:CD202 U4 CT4:CT202 BW4:CA202 DD4:DD202 U6:U202 BJ4:BJ202</xm:sqref>
+          <xm:sqref>CM4:CM202 CD4:CD202 CT4:CT202 BW4:CA202 DD4:DD202 U6:U202 U4 BJ4:BJ202</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{143FAE5A-FD36-46AD-9349-4EFFCC3095CD}">
           <x14:formula1>
@@ -45183,12 +45143,6 @@
           </x14:formula1>
           <xm:sqref>BM4:BM202</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{842DA450-3C09-4745-B9EF-20406FB70FFE}">
-          <x14:formula1>
-            <xm:f>'(참고)코드'!$J$2:$J$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>BB4:BB158</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -45199,8 +45153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4020EFF4-6561-40DD-9693-E9109756F960}">
   <dimension ref="A1:AS242"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AO9" sqref="AO9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -45501,269 +45455,269 @@
         <v>288</v>
       </c>
       <c r="AO3" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="AP3" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="AP3" s="10" t="s">
+      <c r="AR3" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="AR3" s="11" t="s">
+      <c r="AS3" s="39" t="s">
         <v>291</v>
-      </c>
-      <c r="AS3" s="39" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="D4" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="J4" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="P4" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="Q4" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="S4" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="U4" s="24" t="s">
         <v>299</v>
-      </c>
-      <c r="U4" s="24" t="s">
-        <v>300</v>
       </c>
       <c r="V4" s="24">
         <v>8</v>
       </c>
       <c r="AF4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG4" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AI4" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AL4" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="AL4" s="12" t="s">
+      <c r="AM4" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="AM4" s="10" t="s">
+      <c r="AO4" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="AO4" s="11" t="s">
+      <c r="AP4" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="AP4" s="10" t="s">
+      <c r="AR4" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="AR4" s="11" t="s">
+      <c r="AS4" s="39" t="s">
         <v>309</v>
-      </c>
-      <c r="AS4" s="39" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="D5" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="J5" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="S5" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="U5" s="24" t="s">
         <v>315</v>
-      </c>
-      <c r="U5" s="24" t="s">
-        <v>316</v>
       </c>
       <c r="V5" s="24">
         <v>12</v>
       </c>
       <c r="AL5" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="AM5" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="AM5" s="10" t="s">
+      <c r="AO5" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="AO5" s="11" t="s">
+      <c r="AP5" s="10" t="s">
         <v>319</v>
-      </c>
-      <c r="AP5" s="10" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="J6" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="S6" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="U6" s="24" t="s">
         <v>323</v>
-      </c>
-      <c r="U6" s="24" t="s">
-        <v>324</v>
       </c>
       <c r="V6" s="24">
         <v>16</v>
       </c>
       <c r="AL6" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AM6" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="AM6" s="10" t="s">
+      <c r="AO6" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="AO6" s="11" t="s">
+      <c r="AP6" s="10" t="s">
         <v>327</v>
-      </c>
-      <c r="AP6" s="10" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="J7" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="S7" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="U7" s="24" t="s">
         <v>331</v>
-      </c>
-      <c r="U7" s="24" t="s">
-        <v>332</v>
       </c>
       <c r="V7" s="24">
         <v>20</v>
       </c>
       <c r="AL7" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="AM7" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="AM7" s="10" t="s">
+      <c r="AO7" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="AO7" s="11" t="s">
+      <c r="AP7" s="10" t="s">
         <v>335</v>
-      </c>
-      <c r="AP7" s="10" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="J8" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>337</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>338</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>255</v>
       </c>
       <c r="U8" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V8" s="24">
         <v>24</v>
       </c>
       <c r="AL8" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AM8" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="AM8" s="10" t="s">
+      <c r="AO8" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="AO8" s="11" t="s">
+      <c r="AP8" s="10" t="s">
         <v>342</v>
-      </c>
-      <c r="AP8" s="10" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="J9" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="S9" s="12" t="s">
         <v>283</v>
       </c>
       <c r="U9" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="V9" s="24">
         <v>660</v>
       </c>
       <c r="AL9" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM9" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="AM9" s="10" t="s">
+      <c r="AO9" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="AP9" s="10" t="s">
         <v>348</v>
-      </c>
-      <c r="AO9" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="AP9" s="10" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="J10" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="S10" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="U10" s="24" t="s">
         <v>352</v>
-      </c>
-      <c r="U10" s="24" t="s">
-        <v>353</v>
       </c>
       <c r="V10" s="24">
         <v>10</v>
       </c>
       <c r="AL10" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="AM10" s="10" t="s">
         <v>354</v>
-      </c>
-      <c r="AM10" s="10" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="J11" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>357</v>
+        <v>619</v>
       </c>
       <c r="U11" s="24" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="V11" s="24">
         <v>28</v>
       </c>
       <c r="AL11" s="12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AM11" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
@@ -45771,220 +45725,220 @@
         <v>622</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>361</v>
+        <v>620</v>
       </c>
       <c r="U12" s="24" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="V12" s="24">
         <v>32</v>
       </c>
       <c r="AL12" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AM12" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="U13" s="24" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="V13" s="24">
         <v>51</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AM13" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="U14" s="24" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="V14" s="24">
         <v>533</v>
       </c>
       <c r="AL14" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AM14" s="10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="U15" s="24" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V15" s="24">
         <v>36</v>
       </c>
       <c r="AL15" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AM15" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="U16" s="24" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="V16" s="24">
         <v>40</v>
       </c>
       <c r="AL16" s="12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AM16" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U17" s="24" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="V17" s="24">
         <v>31</v>
       </c>
       <c r="AL17" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AM17" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U18" s="24" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="V18" s="24">
         <v>44</v>
       </c>
       <c r="AL18" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AM18" s="10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U19" s="24" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="V19" s="24">
         <v>48</v>
       </c>
       <c r="AL19" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AM19" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U20" s="24" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="V20" s="24">
         <v>50</v>
       </c>
       <c r="AL20" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AM20" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U21" s="24" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="V21" s="24">
         <v>52</v>
       </c>
       <c r="AL21" s="12" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AM21" s="10" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U22" s="24" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="V22" s="24">
         <v>112</v>
       </c>
       <c r="AL22" s="12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AM22" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U23" s="24" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="V23" s="24">
         <v>56</v>
       </c>
       <c r="AL23" s="12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AM23" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U24" s="24" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="V24" s="24">
         <v>84</v>
       </c>
       <c r="AL24" s="12" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AM24" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U25" s="24" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="V25" s="24">
         <v>204</v>
       </c>
       <c r="AL25" s="12" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AM25" s="10" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U26" s="24" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="V26" s="24">
         <v>60</v>
       </c>
       <c r="AL26" s="12" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AM26" s="10" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U27" s="24" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="V27" s="24">
         <v>64</v>
@@ -45992,7 +45946,7 @@
     </row>
     <row r="28" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U28" s="24" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="V28" s="24">
         <v>68</v>
@@ -46000,7 +45954,7 @@
     </row>
     <row r="29" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U29" s="24" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="V29" s="24">
         <v>70</v>
@@ -46008,7 +45962,7 @@
     </row>
     <row r="30" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U30" s="24" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="V30" s="24">
         <v>72</v>
@@ -46016,7 +45970,7 @@
     </row>
     <row r="31" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U31" s="24" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="V31" s="24">
         <v>74</v>
@@ -46024,7 +45978,7 @@
     </row>
     <row r="32" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U32" s="24" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="V32" s="24">
         <v>76</v>
@@ -46032,7 +45986,7 @@
     </row>
     <row r="33" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U33" s="24" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="V33" s="24">
         <v>86</v>
@@ -46040,7 +45994,7 @@
     </row>
     <row r="34" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U34" s="24" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="V34" s="24">
         <v>96</v>
@@ -46048,7 +46002,7 @@
     </row>
     <row r="35" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U35" s="24" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="V35" s="24">
         <v>100</v>
@@ -46056,7 +46010,7 @@
     </row>
     <row r="36" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U36" s="24" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="V36" s="24">
         <v>854</v>
@@ -46064,7 +46018,7 @@
     </row>
     <row r="37" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U37" s="24" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="V37" s="24">
         <v>108</v>
@@ -46072,7 +46026,7 @@
     </row>
     <row r="38" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U38" s="24" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="V38" s="24">
         <v>116</v>
@@ -46080,7 +46034,7 @@
     </row>
     <row r="39" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U39" s="24" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="V39" s="24">
         <v>120</v>
@@ -46088,7 +46042,7 @@
     </row>
     <row r="40" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U40" s="24" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="V40" s="24">
         <v>124</v>
@@ -46096,7 +46050,7 @@
     </row>
     <row r="41" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U41" s="24" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="V41" s="24">
         <v>136</v>
@@ -46104,7 +46058,7 @@
     </row>
     <row r="42" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U42" s="24" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="V42" s="24">
         <v>140</v>
@@ -46112,7 +46066,7 @@
     </row>
     <row r="43" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U43" s="24" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="V43" s="24">
         <v>148</v>
@@ -46120,7 +46074,7 @@
     </row>
     <row r="44" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U44" s="24" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="V44" s="24">
         <v>152</v>
@@ -46128,7 +46082,7 @@
     </row>
     <row r="45" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U45" s="24" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="V45" s="24">
         <v>156</v>
@@ -46136,7 +46090,7 @@
     </row>
     <row r="46" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U46" s="24" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="V46" s="24">
         <v>162</v>
@@ -46144,7 +46098,7 @@
     </row>
     <row r="47" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U47" s="24" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="V47" s="24">
         <v>166</v>
@@ -46152,7 +46106,7 @@
     </row>
     <row r="48" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U48" s="24" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="V48" s="24">
         <v>170</v>
@@ -46160,7 +46114,7 @@
     </row>
     <row r="49" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U49" s="24" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="V49" s="24">
         <v>174</v>
@@ -46168,7 +46122,7 @@
     </row>
     <row r="50" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U50" s="24" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="V50" s="24">
         <v>178</v>
@@ -46176,7 +46130,7 @@
     </row>
     <row r="51" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U51" s="24" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="V51" s="24">
         <v>180</v>
@@ -46184,7 +46138,7 @@
     </row>
     <row r="52" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U52" s="24" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="V52" s="24">
         <v>184</v>
@@ -46192,7 +46146,7 @@
     </row>
     <row r="53" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U53" s="24" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="V53" s="24">
         <v>188</v>
@@ -46200,7 +46154,7 @@
     </row>
     <row r="54" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U54" s="24" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="V54" s="24">
         <v>384</v>
@@ -46208,7 +46162,7 @@
     </row>
     <row r="55" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U55" s="24" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="V55" s="24">
         <v>191</v>
@@ -46216,7 +46170,7 @@
     </row>
     <row r="56" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U56" s="24" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="V56" s="24">
         <v>192</v>
@@ -46224,7 +46178,7 @@
     </row>
     <row r="57" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U57" s="24" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="V57" s="24">
         <v>196</v>
@@ -46232,7 +46186,7 @@
     </row>
     <row r="58" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U58" s="24" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="V58" s="24">
         <v>203</v>
@@ -46240,7 +46194,7 @@
     </row>
     <row r="59" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U59" s="24" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="V59" s="24">
         <v>208</v>
@@ -46248,7 +46202,7 @@
     </row>
     <row r="60" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U60" s="24" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="V60" s="24">
         <v>262</v>
@@ -46256,7 +46210,7 @@
     </row>
     <row r="61" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U61" s="24" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="V61" s="24">
         <v>212</v>
@@ -46264,7 +46218,7 @@
     </row>
     <row r="62" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U62" s="24" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="V62" s="24">
         <v>214</v>
@@ -46272,7 +46226,7 @@
     </row>
     <row r="63" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U63" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="V63" s="24">
         <v>626</v>
@@ -46280,7 +46234,7 @@
     </row>
     <row r="64" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U64" s="24" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="V64" s="24">
         <v>218</v>
@@ -46288,7 +46242,7 @@
     </row>
     <row r="65" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U65" s="24" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="V65" s="24">
         <v>818</v>
@@ -46296,7 +46250,7 @@
     </row>
     <row r="66" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U66" s="24" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="V66" s="24">
         <v>222</v>
@@ -46304,7 +46258,7 @@
     </row>
     <row r="67" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U67" s="24" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V67" s="24">
         <v>226</v>
@@ -46312,7 +46266,7 @@
     </row>
     <row r="68" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U68" s="24" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="V68" s="24">
         <v>232</v>
@@ -46320,7 +46274,7 @@
     </row>
     <row r="69" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U69" s="24" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="V69" s="24">
         <v>233</v>
@@ -46328,7 +46282,7 @@
     </row>
     <row r="70" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U70" s="24" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="V70" s="24">
         <v>231</v>
@@ -46336,7 +46290,7 @@
     </row>
     <row r="71" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U71" s="24" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="V71" s="24">
         <v>238</v>
@@ -46344,7 +46298,7 @@
     </row>
     <row r="72" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U72" s="24" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="V72" s="24">
         <v>234</v>
@@ -46352,7 +46306,7 @@
     </row>
     <row r="73" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U73" s="24" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="V73" s="24">
         <v>242</v>
@@ -46360,7 +46314,7 @@
     </row>
     <row r="74" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U74" s="24" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="V74" s="24">
         <v>246</v>
@@ -46368,7 +46322,7 @@
     </row>
     <row r="75" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U75" s="24" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="V75" s="24">
         <v>250</v>
@@ -46376,7 +46330,7 @@
     </row>
     <row r="76" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U76" s="24" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="V76" s="24">
         <v>254</v>
@@ -46384,7 +46338,7 @@
     </row>
     <row r="77" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U77" s="24" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="V77" s="24">
         <v>258</v>
@@ -46392,7 +46346,7 @@
     </row>
     <row r="78" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U78" s="24" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="V78" s="24">
         <v>260</v>
@@ -46400,7 +46354,7 @@
     </row>
     <row r="79" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U79" s="24" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="V79" s="24">
         <v>266</v>
@@ -46408,7 +46362,7 @@
     </row>
     <row r="80" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U80" s="24" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="V80" s="24">
         <v>270</v>
@@ -46416,7 +46370,7 @@
     </row>
     <row r="81" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U81" s="24" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="V81" s="24">
         <v>268</v>
@@ -46424,7 +46378,7 @@
     </row>
     <row r="82" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U82" s="24" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="V82" s="24">
         <v>276</v>
@@ -46432,7 +46386,7 @@
     </row>
     <row r="83" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U83" s="24" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="V83" s="24">
         <v>288</v>
@@ -46440,7 +46394,7 @@
     </row>
     <row r="84" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U84" s="24" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="V84" s="24">
         <v>292</v>
@@ -46448,7 +46402,7 @@
     </row>
     <row r="85" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U85" s="24" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="V85" s="24">
         <v>300</v>
@@ -46456,7 +46410,7 @@
     </row>
     <row r="86" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U86" s="24" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="V86" s="24">
         <v>304</v>
@@ -46464,7 +46418,7 @@
     </row>
     <row r="87" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U87" s="24" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="V87" s="24">
         <v>308</v>
@@ -46472,7 +46426,7 @@
     </row>
     <row r="88" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U88" s="24" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="V88" s="24">
         <v>312</v>
@@ -46480,7 +46434,7 @@
     </row>
     <row r="89" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U89" s="24" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="V89" s="24">
         <v>316</v>
@@ -46488,7 +46442,7 @@
     </row>
     <row r="90" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U90" s="24" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="V90" s="24">
         <v>320</v>
@@ -46496,7 +46450,7 @@
     </row>
     <row r="91" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U91" s="24" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="V91" s="24">
         <v>831</v>
@@ -46504,7 +46458,7 @@
     </row>
     <row r="92" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U92" s="24" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="V92" s="24">
         <v>324</v>
@@ -46512,7 +46466,7 @@
     </row>
     <row r="93" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U93" s="24" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="V93" s="24">
         <v>624</v>
@@ -46520,7 +46474,7 @@
     </row>
     <row r="94" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U94" s="24" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="V94" s="24">
         <v>328</v>
@@ -46528,7 +46482,7 @@
     </row>
     <row r="95" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U95" s="24" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="V95" s="24">
         <v>332</v>
@@ -46536,7 +46490,7 @@
     </row>
     <row r="96" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U96" s="24" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="V96" s="24">
         <v>334</v>
@@ -46544,7 +46498,7 @@
     </row>
     <row r="97" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U97" s="24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="V97" s="24">
         <v>340</v>
@@ -46552,7 +46506,7 @@
     </row>
     <row r="98" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U98" s="24" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="V98" s="24">
         <v>344</v>
@@ -46560,7 +46514,7 @@
     </row>
     <row r="99" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U99" s="24" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="V99" s="24">
         <v>348</v>
@@ -46568,7 +46522,7 @@
     </row>
     <row r="100" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U100" s="24" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="V100" s="24">
         <v>352</v>
@@ -46576,7 +46530,7 @@
     </row>
     <row r="101" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U101" s="24" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="V101" s="24">
         <v>356</v>
@@ -46584,7 +46538,7 @@
     </row>
     <row r="102" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U102" s="24" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="V102" s="24">
         <v>360</v>
@@ -46592,7 +46546,7 @@
     </row>
     <row r="103" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U103" s="24" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="V103" s="24">
         <v>364</v>
@@ -46600,7 +46554,7 @@
     </row>
     <row r="104" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U104" s="24" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="V104" s="24">
         <v>368</v>
@@ -46608,7 +46562,7 @@
     </row>
     <row r="105" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U105" s="24" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="V105" s="24">
         <v>372</v>
@@ -46616,7 +46570,7 @@
     </row>
     <row r="106" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U106" s="24" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="V106" s="24">
         <v>376</v>
@@ -46624,7 +46578,7 @@
     </row>
     <row r="107" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U107" s="24" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="V107" s="24">
         <v>380</v>
@@ -46632,7 +46586,7 @@
     </row>
     <row r="108" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U108" s="24" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="V108" s="24">
         <v>388</v>
@@ -46640,7 +46594,7 @@
     </row>
     <row r="109" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U109" s="24" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="V109" s="24">
         <v>392</v>
@@ -46648,7 +46602,7 @@
     </row>
     <row r="110" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U110" s="24" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="V110" s="24">
         <v>832</v>
@@ -46656,7 +46610,7 @@
     </row>
     <row r="111" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U111" s="24" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="V111" s="24">
         <v>400</v>
@@ -46664,7 +46618,7 @@
     </row>
     <row r="112" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U112" s="24" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="V112" s="24">
         <v>398</v>
@@ -46672,7 +46626,7 @@
     </row>
     <row r="113" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U113" s="24" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="V113" s="24">
         <v>404</v>
@@ -46680,7 +46634,7 @@
     </row>
     <row r="114" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U114" s="24" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="V114" s="24">
         <v>296</v>
@@ -46688,7 +46642,7 @@
     </row>
     <row r="115" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U115" s="24" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="V115" s="24">
         <v>408</v>
@@ -46704,7 +46658,7 @@
     </row>
     <row r="117" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U117" s="24" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="V117" s="24">
         <v>414</v>
@@ -46712,7 +46666,7 @@
     </row>
     <row r="118" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U118" s="24" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="V118" s="24">
         <v>417</v>
@@ -46720,7 +46674,7 @@
     </row>
     <row r="119" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U119" s="24" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="V119" s="24">
         <v>418</v>
@@ -46728,7 +46682,7 @@
     </row>
     <row r="120" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U120" s="24" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="V120" s="24">
         <v>428</v>
@@ -46736,7 +46690,7 @@
     </row>
     <row r="121" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U121" s="24" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="V121" s="24">
         <v>422</v>
@@ -46744,7 +46698,7 @@
     </row>
     <row r="122" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U122" s="24" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="V122" s="24">
         <v>426</v>
@@ -46752,7 +46706,7 @@
     </row>
     <row r="123" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U123" s="24" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="V123" s="24">
         <v>430</v>
@@ -46760,7 +46714,7 @@
     </row>
     <row r="124" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U124" s="24" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="V124" s="24">
         <v>434</v>
@@ -46768,7 +46722,7 @@
     </row>
     <row r="125" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U125" s="24" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="V125" s="24">
         <v>438</v>
@@ -46776,7 +46730,7 @@
     </row>
     <row r="126" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U126" s="24" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="V126" s="24">
         <v>440</v>
@@ -46784,7 +46738,7 @@
     </row>
     <row r="127" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U127" s="24" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="V127" s="24">
         <v>442</v>
@@ -46792,7 +46746,7 @@
     </row>
     <row r="128" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U128" s="24" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="V128" s="24">
         <v>446</v>
@@ -46800,7 +46754,7 @@
     </row>
     <row r="129" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U129" s="24" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="V129" s="24">
         <v>807</v>
@@ -46808,7 +46762,7 @@
     </row>
     <row r="130" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U130" s="24" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="V130" s="24">
         <v>450</v>
@@ -46816,7 +46770,7 @@
     </row>
     <row r="131" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U131" s="24" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="V131" s="24">
         <v>454</v>
@@ -46824,7 +46778,7 @@
     </row>
     <row r="132" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U132" s="24" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="V132" s="24">
         <v>458</v>
@@ -46832,7 +46786,7 @@
     </row>
     <row r="133" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U133" s="24" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="V133" s="24">
         <v>462</v>
@@ -46840,7 +46794,7 @@
     </row>
     <row r="134" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U134" s="24" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="V134" s="24">
         <v>466</v>
@@ -46848,7 +46802,7 @@
     </row>
     <row r="135" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U135" s="24" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="V135" s="24">
         <v>470</v>
@@ -46856,7 +46810,7 @@
     </row>
     <row r="136" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U136" s="24" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="V136" s="24">
         <v>584</v>
@@ -46864,7 +46818,7 @@
     </row>
     <row r="137" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U137" s="24" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="V137" s="24">
         <v>474</v>
@@ -46872,7 +46826,7 @@
     </row>
     <row r="138" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U138" s="24" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="V138" s="24">
         <v>478</v>
@@ -46880,7 +46834,7 @@
     </row>
     <row r="139" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U139" s="24" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="V139" s="24">
         <v>480</v>
@@ -46888,7 +46842,7 @@
     </row>
     <row r="140" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U140" s="24" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="V140" s="24">
         <v>175</v>
@@ -46896,7 +46850,7 @@
     </row>
     <row r="141" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U141" s="24" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="V141" s="24">
         <v>484</v>
@@ -46904,7 +46858,7 @@
     </row>
     <row r="142" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U142" s="24" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="V142" s="24">
         <v>583</v>
@@ -46912,7 +46866,7 @@
     </row>
     <row r="143" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U143" s="24" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="V143" s="24">
         <v>498</v>
@@ -46920,7 +46874,7 @@
     </row>
     <row r="144" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U144" s="24" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="V144" s="24">
         <v>492</v>
@@ -46928,7 +46882,7 @@
     </row>
     <row r="145" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U145" s="24" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="V145" s="24">
         <v>496</v>
@@ -46936,7 +46890,7 @@
     </row>
     <row r="146" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U146" s="24" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="V146" s="24">
         <v>499</v>
@@ -46944,7 +46898,7 @@
     </row>
     <row r="147" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U147" s="24" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="V147" s="24">
         <v>500</v>
@@ -46952,7 +46906,7 @@
     </row>
     <row r="148" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U148" s="24" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="V148" s="24">
         <v>504</v>
@@ -46960,7 +46914,7 @@
     </row>
     <row r="149" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U149" s="24" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="V149" s="24">
         <v>508</v>
@@ -46968,7 +46922,7 @@
     </row>
     <row r="150" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U150" s="24" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="V150" s="24">
         <v>104</v>
@@ -46976,7 +46930,7 @@
     </row>
     <row r="151" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U151" s="24" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="V151" s="24">
         <v>516</v>
@@ -46984,7 +46938,7 @@
     </row>
     <row r="152" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U152" s="24" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="V152" s="24">
         <v>520</v>
@@ -46992,7 +46946,7 @@
     </row>
     <row r="153" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U153" s="24" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="V153" s="24">
         <v>524</v>
@@ -47000,7 +46954,7 @@
     </row>
     <row r="154" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U154" s="24" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="V154" s="24">
         <v>528</v>
@@ -47008,7 +46962,7 @@
     </row>
     <row r="155" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U155" s="24" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="V155" s="24">
         <v>540</v>
@@ -47016,7 +46970,7 @@
     </row>
     <row r="156" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U156" s="24" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="V156" s="24">
         <v>554</v>
@@ -47024,7 +46978,7 @@
     </row>
     <row r="157" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U157" s="24" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="V157" s="24">
         <v>558</v>
@@ -47032,7 +46986,7 @@
     </row>
     <row r="158" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U158" s="24" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="V158" s="24">
         <v>562</v>
@@ -47040,7 +46994,7 @@
     </row>
     <row r="159" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U159" s="24" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="V159" s="24">
         <v>566</v>
@@ -47048,7 +47002,7 @@
     </row>
     <row r="160" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U160" s="24" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="V160" s="24">
         <v>570</v>
@@ -47056,7 +47010,7 @@
     </row>
     <row r="161" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U161" s="24" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="V161" s="24">
         <v>574</v>
@@ -47064,7 +47018,7 @@
     </row>
     <row r="162" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U162" s="24" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="V162" s="24">
         <v>580</v>
@@ -47072,7 +47026,7 @@
     </row>
     <row r="163" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U163" s="24" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="V163" s="24">
         <v>578</v>
@@ -47080,7 +47034,7 @@
     </row>
     <row r="164" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U164" s="24" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="V164" s="24">
         <v>512</v>
@@ -47088,7 +47042,7 @@
     </row>
     <row r="165" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U165" s="24" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="V165" s="24">
         <v>586</v>
@@ -47096,7 +47050,7 @@
     </row>
     <row r="166" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U166" s="24" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="V166" s="24">
         <v>585</v>
@@ -47104,7 +47058,7 @@
     </row>
     <row r="167" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U167" s="24" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="V167" s="24">
         <v>275</v>
@@ -47112,7 +47066,7 @@
     </row>
     <row r="168" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U168" s="24" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="V168" s="24">
         <v>591</v>
@@ -47120,7 +47074,7 @@
     </row>
     <row r="169" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U169" s="24" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="V169" s="24">
         <v>598</v>
@@ -47128,7 +47082,7 @@
     </row>
     <row r="170" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U170" s="24" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="V170" s="24">
         <v>600</v>
@@ -47136,7 +47090,7 @@
     </row>
     <row r="171" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U171" s="24" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="V171" s="24">
         <v>604</v>
@@ -47144,7 +47098,7 @@
     </row>
     <row r="172" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U172" s="24" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="V172" s="24">
         <v>608</v>
@@ -47152,7 +47106,7 @@
     </row>
     <row r="173" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U173" s="24" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="V173" s="24">
         <v>612</v>
@@ -47160,7 +47114,7 @@
     </row>
     <row r="174" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U174" s="24" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="V174" s="24">
         <v>616</v>
@@ -47168,7 +47122,7 @@
     </row>
     <row r="175" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U175" s="24" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="V175" s="24">
         <v>620</v>
@@ -47176,7 +47130,7 @@
     </row>
     <row r="176" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U176" s="24" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="V176" s="24">
         <v>630</v>
@@ -47184,7 +47138,7 @@
     </row>
     <row r="177" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U177" s="24" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="V177" s="24">
         <v>634</v>
@@ -47192,7 +47146,7 @@
     </row>
     <row r="178" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U178" s="24" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="V178" s="24">
         <v>638</v>
@@ -47200,7 +47154,7 @@
     </row>
     <row r="179" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U179" s="24" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="V179" s="24">
         <v>642</v>
@@ -47208,7 +47162,7 @@
     </row>
     <row r="180" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U180" s="24" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="V180" s="24">
         <v>643</v>
@@ -47216,7 +47170,7 @@
     </row>
     <row r="181" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U181" s="24" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="V181" s="24">
         <v>646</v>
@@ -47224,7 +47178,7 @@
     </row>
     <row r="182" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U182" s="24" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="V182" s="24">
         <v>654</v>
@@ -47232,7 +47186,7 @@
     </row>
     <row r="183" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U183" s="24" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="V183" s="24">
         <v>659</v>
@@ -47240,7 +47194,7 @@
     </row>
     <row r="184" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U184" s="24" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="V184" s="24">
         <v>662</v>
@@ -47248,7 +47202,7 @@
     </row>
     <row r="185" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U185" s="24" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="V185" s="24">
         <v>666</v>
@@ -47256,7 +47210,7 @@
     </row>
     <row r="186" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U186" s="24" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="V186" s="24">
         <v>670</v>
@@ -47264,7 +47218,7 @@
     </row>
     <row r="187" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U187" s="24" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="V187" s="24">
         <v>882</v>
@@ -47272,7 +47226,7 @@
     </row>
     <row r="188" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U188" s="24" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="V188" s="24">
         <v>674</v>
@@ -47280,7 +47234,7 @@
     </row>
     <row r="189" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U189" s="24" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="V189" s="24">
         <v>678</v>
@@ -47288,7 +47242,7 @@
     </row>
     <row r="190" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U190" s="24" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="V190" s="24">
         <v>682</v>
@@ -47296,7 +47250,7 @@
     </row>
     <row r="191" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U191" s="24" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="V191" s="24">
         <v>686</v>
@@ -47304,7 +47258,7 @@
     </row>
     <row r="192" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U192" s="24" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="V192" s="24">
         <v>688</v>
@@ -47312,7 +47266,7 @@
     </row>
     <row r="193" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U193" s="24" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="V193" s="24">
         <v>690</v>
@@ -47320,7 +47274,7 @@
     </row>
     <row r="194" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U194" s="24" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="V194" s="24">
         <v>694</v>
@@ -47328,7 +47282,7 @@
     </row>
     <row r="195" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U195" s="24" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="V195" s="24">
         <v>702</v>
@@ -47336,7 +47290,7 @@
     </row>
     <row r="196" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U196" s="24" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="V196" s="24">
         <v>703</v>
@@ -47344,7 +47298,7 @@
     </row>
     <row r="197" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U197" s="24" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="V197" s="24">
         <v>705</v>
@@ -47352,7 +47306,7 @@
     </row>
     <row r="198" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U198" s="24" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="V198" s="24">
         <v>90</v>
@@ -47360,7 +47314,7 @@
     </row>
     <row r="199" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U199" s="24" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="V199" s="24">
         <v>706</v>
@@ -47368,7 +47322,7 @@
     </row>
     <row r="200" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U200" s="24" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="V200" s="24">
         <v>710</v>
@@ -47376,7 +47330,7 @@
     </row>
     <row r="201" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U201" s="24" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="V201" s="24">
         <v>239</v>
@@ -47384,7 +47338,7 @@
     </row>
     <row r="202" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U202" s="24" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="V202" s="24">
         <v>728</v>
@@ -47392,7 +47346,7 @@
     </row>
     <row r="203" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U203" s="24" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="V203" s="24">
         <v>724</v>
@@ -47400,7 +47354,7 @@
     </row>
     <row r="204" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U204" s="24" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="V204" s="24">
         <v>144</v>
@@ -47408,7 +47362,7 @@
     </row>
     <row r="205" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U205" s="24" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="V205" s="24">
         <v>729</v>
@@ -47416,7 +47370,7 @@
     </row>
     <row r="206" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U206" s="24" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="V206" s="24">
         <v>740</v>
@@ -47424,7 +47378,7 @@
     </row>
     <row r="207" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U207" s="24" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="V207" s="24">
         <v>744</v>
@@ -47432,7 +47386,7 @@
     </row>
     <row r="208" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U208" s="24" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="V208" s="24">
         <v>748</v>
@@ -47440,7 +47394,7 @@
     </row>
     <row r="209" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U209" s="24" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="V209" s="24">
         <v>752</v>
@@ -47448,7 +47402,7 @@
     </row>
     <row r="210" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U210" s="24" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="V210" s="24">
         <v>756</v>
@@ -47456,7 +47410,7 @@
     </row>
     <row r="211" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U211" s="24" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="V211" s="24">
         <v>760</v>
@@ -47464,7 +47418,7 @@
     </row>
     <row r="212" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U212" s="24" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="V212" s="24">
         <v>158</v>
@@ -47472,7 +47426,7 @@
     </row>
     <row r="213" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U213" s="24" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="V213" s="24">
         <v>762</v>
@@ -47480,7 +47434,7 @@
     </row>
     <row r="214" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U214" s="24" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="V214" s="24">
         <v>834</v>
@@ -47488,7 +47442,7 @@
     </row>
     <row r="215" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U215" s="24" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="V215" s="24">
         <v>764</v>
@@ -47496,7 +47450,7 @@
     </row>
     <row r="216" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U216" s="24" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="V216" s="24">
         <v>768</v>
@@ -47504,7 +47458,7 @@
     </row>
     <row r="217" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U217" s="24" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="V217" s="24">
         <v>772</v>
@@ -47512,7 +47466,7 @@
     </row>
     <row r="218" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U218" s="24" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="V218" s="24">
         <v>776</v>
@@ -47520,7 +47474,7 @@
     </row>
     <row r="219" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U219" s="24" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="V219" s="24">
         <v>780</v>
@@ -47528,7 +47482,7 @@
     </row>
     <row r="220" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U220" s="24" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="V220" s="24">
         <v>788</v>
@@ -47536,7 +47490,7 @@
     </row>
     <row r="221" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U221" s="24" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="V221" s="24">
         <v>792</v>
@@ -47544,7 +47498,7 @@
     </row>
     <row r="222" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U222" s="24" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="V222" s="24">
         <v>795</v>
@@ -47552,7 +47506,7 @@
     </row>
     <row r="223" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U223" s="24" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="V223" s="24">
         <v>796</v>
@@ -47560,7 +47514,7 @@
     </row>
     <row r="224" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U224" s="24" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="V224" s="24">
         <v>798</v>
@@ -47568,7 +47522,7 @@
     </row>
     <row r="225" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U225" s="24" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="V225" s="24">
         <v>800</v>
@@ -47576,7 +47530,7 @@
     </row>
     <row r="226" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U226" s="24" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="V226" s="24">
         <v>804</v>
@@ -47584,7 +47538,7 @@
     </row>
     <row r="227" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U227" s="24" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="V227" s="24">
         <v>784</v>
@@ -47592,7 +47546,7 @@
     </row>
     <row r="228" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U228" s="24" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="V228" s="24">
         <v>826</v>
@@ -47600,7 +47554,7 @@
     </row>
     <row r="229" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U229" s="24" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="V229" s="24">
         <v>840</v>
@@ -47608,7 +47562,7 @@
     </row>
     <row r="230" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U230" s="24" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="V230" s="24">
         <v>581</v>
@@ -47616,7 +47570,7 @@
     </row>
     <row r="231" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U231" s="24" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="V231" s="24">
         <v>858</v>
@@ -47624,7 +47578,7 @@
     </row>
     <row r="232" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U232" s="24" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="V232" s="24">
         <v>860</v>
@@ -47632,7 +47586,7 @@
     </row>
     <row r="233" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U233" s="24" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="V233" s="24">
         <v>548</v>
@@ -47640,7 +47594,7 @@
     </row>
     <row r="234" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U234" s="24" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="V234" s="24">
         <v>862</v>
@@ -47648,7 +47602,7 @@
     </row>
     <row r="235" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U235" s="24" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="V235" s="24">
         <v>704</v>
@@ -47656,7 +47610,7 @@
     </row>
     <row r="236" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U236" s="24" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="V236" s="24">
         <v>92</v>
@@ -47664,7 +47618,7 @@
     </row>
     <row r="237" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U237" s="24" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="V237" s="24">
         <v>850</v>
@@ -47672,7 +47626,7 @@
     </row>
     <row r="238" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U238" s="24" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="V238" s="24">
         <v>876</v>
@@ -47680,7 +47634,7 @@
     </row>
     <row r="239" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U239" s="24" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="V239" s="24">
         <v>732</v>
@@ -47688,7 +47642,7 @@
     </row>
     <row r="240" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U240" s="24" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="V240" s="24">
         <v>887</v>
@@ -47696,7 +47650,7 @@
     </row>
     <row r="241" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U241" s="24" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="V241" s="24">
         <v>894</v>
@@ -47704,7 +47658,7 @@
     </row>
     <row r="242" spans="21:22" x14ac:dyDescent="0.3">
       <c r="U242" s="24" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="V242" s="24">
         <v>716</v>
@@ -47713,16 +47667,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100DC6298308438764CB1BB3B69A34C8FF7" ma:contentTypeVersion="9" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="ec3afc40a4512e1c968ca2cee30b523b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25c2515b-9503-4120-8a04-e13f573a2b2a" xmlns:ns3="4c8003be-eb40-4e61-8d37-b1ac91d63543" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58488964d726cfdecd5b2d02bc3f007f" ns2:_="" ns3:_="">
     <xsd:import namespace="25c2515b-9503-4120-8a04-e13f573a2b2a"/>
@@ -47919,7 +47868,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -47928,16 +47877,201 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D84D5DEA-135B-411E-B1BB-38DA6818268B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4c8003be-eb40-4e61-8d37-b1ac91d63543">
+      <UserInfo>
+        <DisplayName>Jungup Jang</DisplayName>
+        <AccountId>105</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Wonwoong Yang</DisplayName>
+        <AccountId>40</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Moogun Ahn</DisplayName>
+        <AccountId>41</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jungwon Kim</DisplayName>
+        <AccountId>106</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Yongseok Kim</DisplayName>
+        <AccountId>102</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Il Choi</DisplayName>
+        <AccountId>59</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jihoon Kim</DisplayName>
+        <AccountId>68</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dukyoung Jang</DisplayName>
+        <AccountId>69</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Taehyeong Kim</DisplayName>
+        <AccountId>107</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jinsu Yang</DisplayName>
+        <AccountId>90</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Moonyoul Lee</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Junejung Lee</DisplayName>
+        <AccountId>51</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kideuk Kwon</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Woojin Jang</DisplayName>
+        <AccountId>104</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Changdo Kim</DisplayName>
+        <AccountId>42</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jaehun Jung</DisplayName>
+        <AccountId>64</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juhyun Kim</DisplayName>
+        <AccountId>34</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Joowon Hong</DisplayName>
+        <AccountId>91</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Hunsoo Yoo</DisplayName>
+        <AccountId>136</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Wonjong Choi</DisplayName>
+        <AccountId>33</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sungkwan On</DisplayName>
+        <AccountId>110</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eunkyoung Ma</DisplayName>
+        <AccountId>74</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Hyena Park</DisplayName>
+        <AccountId>185</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>MuHwan Oh</DisplayName>
+        <AccountId>63</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jooyeon Hwang</DisplayName>
+        <AccountId>61</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jonghyeok Park</DisplayName>
+        <AccountId>58</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sunghwan Park</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Donghyeon Kim</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Hasick Lim</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Seonguk KIM</DisplayName>
+        <AccountId>171</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sangjo Nam</DisplayName>
+        <AccountId>186</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Namil Kim</DisplayName>
+        <AccountId>36</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Bumkyu Kim</DisplayName>
+        <AccountId>30</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jinwook Seo</DisplayName>
+        <AccountId>83</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Minwoo Kang</DisplayName>
+        <AccountId>86</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jihoon Lee</DisplayName>
+        <AccountId>25</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Yonghyun Cho</DisplayName>
+        <AccountId>131</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{133CC3BF-9A49-4109-A7FC-0B1CA9D78653}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -47956,10 +48090,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{131B5AC1-B0FF-4262-AFF8-521056645E63}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D84D5DEA-135B-411E-B1BB-38DA6818268B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4c8003be-eb40-4e61-8d37-b1ac91d63543"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>